--- a/backend/new_exls/Future Consumer Limited.xlsx
+++ b/backend/new_exls/Future Consumer Limited.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1919,6 +1919,36 @@
         </is>
       </c>
       <c r="G46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Total_NumberOfPersonsBenefittedFromCSRProjects_value</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -1935,7 +1965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2242,7 +2272,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>EWaste</t>
+          <t>WasteDisposedByOtherDisposalOperations</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2279,7 +2309,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>BatteryWaste</t>
+          <t>TotalFuelConsumptionFromNonRenewableSources</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2289,7 +2319,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tonne</t>
+          <t>Gigajoule</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2316,7 +2346,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>PlasticWaste</t>
+          <t>TotalFuelConsumptionFromRenewableSources</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2326,7 +2356,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tonne</t>
+          <t>Gigajoule</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2353,7 +2383,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>BioMedicalWaste</t>
+          <t>EWaste</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2390,7 +2420,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>RadioactiveWaste</t>
+          <t>BatteryWaste</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2427,7 +2457,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>OtherHazardousWaste</t>
+          <t>PlasticWaste</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2464,7 +2494,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>ConstructionAndDemolitionWaste</t>
+          <t>BioMedicalWaste</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2501,7 +2531,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>OtherNonHazardousWasteGenerated</t>
+          <t>RadioactiveWaste</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2538,7 +2568,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>TotalWasteRecovered</t>
+          <t>OtherHazardousWaste</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2575,7 +2605,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>WasteRecoveredThroughReUsed</t>
+          <t>ConstructionAndDemolitionWaste</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2612,7 +2642,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>WasteRecoveredThroughRecycled</t>
+          <t>OtherNonHazardousWasteGenerated</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2649,7 +2679,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>TotalWaterDischargedInKilolitres</t>
+          <t>TotalWasteRecovered</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2659,7 +2689,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Kiloliters</t>
+          <t>Tonne</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2686,7 +2716,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>WaterWithdrawalBySurfaceWater</t>
+          <t>WasteRecoveredThroughReUsed</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2696,7 +2726,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Kiloliters</t>
+          <t>Tonne</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2723,7 +2753,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>WaterWithdrawalByGroundwater</t>
+          <t>WasteRecoveredThroughRecycled</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2733,7 +2763,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Kiloliters</t>
+          <t>Tonne</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2760,7 +2790,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>WaterWithdrawalByThirdPartyWater</t>
+          <t>TotalWaterDischargedInKilolitres</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2790,14 +2820,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>EnergyIntensityPerRupeeOfTurnover</t>
+          <t>EnergyIntensityPerRupeeOfTurnoverTotalVolumeOfWaterConsumptionWasteRecoveredThroughRecycled</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>WaterDischargeToGroundwaterWithOutTreatment</t>
+          <t>WaterWithdrawalBySurfaceWater</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2829,7 +2859,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>WaterDischargeToSurfaceWaterWithTreatment</t>
+          <t>WaterWithdrawalByGroundwater</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2861,7 +2891,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>WaterDischargeToSurfaceWaterWithOutTreatment</t>
+          <t>WaterWithdrawalByThirdPartyWater</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2893,7 +2923,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>WaterDischargeToSeawaterWithTreatment</t>
+          <t>WaterDischargeToGroundwaterWithOutTreatment</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2925,7 +2955,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>WaterDischargeToSeawaterWithOutTreatment</t>
+          <t>WaterDischargeToSurfaceWaterWithTreatment</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2957,7 +2987,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>WaterDischargeToOthersWithTreatment</t>
+          <t>WaterDischargeToSurfaceWaterWithOutTreatment</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2989,7 +3019,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>WaterDischargeToOthersWithoutTreatment</t>
+          <t>WaterDischargeToSeawaterWithTreatment</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3021,7 +3051,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>TotalEnergyConsumedFromRenewableSources</t>
+          <t>WaterDischargeToSeawaterWithOutTreatment</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3031,7 +3061,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Gigajoule</t>
+          <t>Kiloliters</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3053,7 +3083,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>TotalEnergyConsumedFromRenewableAndNonRenewableSources</t>
+          <t>WaterDischargeToOthersWithTreatment</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3063,7 +3093,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Gigajoule</t>
+          <t>Kiloliters</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3085,30 +3115,126 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
+          <t>WaterDischargeToOthersWithoutTreatment</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Kiloliters</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TotalEnergyConsumedFromRenewableSources</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Gigajoule</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TotalEnergyConsumedFromRenewableAndNonRenewableSources</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Gigajoule</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
           <t>TotalEnergyConsumedFromNonRenewableSources</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>Gigajoule</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>2023-04-01--2024-03-31</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>INF</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>DCYMain</t>
         </is>
@@ -3287,7 +3413,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>RemunerationAndPayEquity</t>
+          <t>TotalWagesPaid</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3450,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>MedianRemunerationSalaryWagesOfEmployeesOtherThanBODAndKMPMaleNumberOfBoardOfDirectorsForRemunerationOrSalaryOrWages</t>
+          <t>RemunerationAndPayEquity</t>
         </is>
       </c>
     </row>
@@ -3357,6 +3483,11 @@
       <c r="G6" t="inlineStr">
         <is>
           <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>MedianRemunerationSalaryWagesOfEmployeesOtherThanBODAndKMPMaleNumberOfBoardOfDirectorsForRemunerationOrSalaryOrWages</t>
         </is>
       </c>
     </row>

--- a/backend/new_exls/Future Consumer Limited.xlsx
+++ b/backend/new_exls/Future Consumer Limited.xlsx
@@ -10,6 +10,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="social info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="env_res" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gov info" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="social info_1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="env_res_1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gov info_1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3978,4 +3981,3575 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Period</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Referance_Unit</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>xml_urls</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Not_Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PercentageOfPersonsInRespectiveCategoryCoveredByTheAwarenessProgrammes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>D_BoardOfDirectorsSegment</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>NumberOfEmployeesOrWhoseFamilyMembersRehabilitatedAndPlacedInSuitableEmployment</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PercentageOfPersonsInRespectiveCategoryCoveredByTheAwarenessProgrammes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>D_KeyManagerialPersonnelSegment</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>NumberOfWorkersOrWhoseFamilyMembersRehabilitatedAndPlacedInSuitableEmployment</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PercentageOfPersonsInRespectiveCategoryCoveredByTheAwarenessProgrammes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>D_EmployeesOtherThanBoDAndKMPsSegment</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>NumberOfPersonsBenefittedFromCSRProjects</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PercentageOfPersonsInRespectiveCategoryCoveredByTheAwarenessProgrammes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>D_WorkersSegment</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>jkjk</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TotalNumberOfTrainingAndAwarenessProgramsHeld</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>D_BoardOfDirectorsSegment</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>PercentageOfChildLabourOfValueChainPartnersP5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TotalNumberOfTrainingAndAwarenessProgramsHeld</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>D_KeyManagerialPersonnelSegment</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>TotalComplaintsReportedUnderSexualHarassmentOfWomenAtWorkplace</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TotalNumberOfTrainingAndAwarenessProgramsHeld</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>D_EmployeesOtherThanBoDAndKMPsSegment</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>PercentageOfDiscriminationAtWorkPlaceOfValueChainPartnersP5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TotalNumberOfTrainingAndAwarenessProgramsHeld</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>D_WorkersSegment</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>PercentageOfForcedLabourOrInvoluntaryLabourOfValueChainPartnersP5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TotalNumberOfEmployeesOrWorkersForTrainingOnHumanRightsIssues</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>D_PermanentEmployees_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TotalNumberOfEmployeesOrWorkersForTrainingOnHumanRightsIssues</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>D_OtherThanPermanentEmployees_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TotalNumberOfEmployeesOrWorkersForTrainingOnHumanRightsIssues</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>D_Employees_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TotalNumberOfEmployeesOrWorkersForTrainingOnHumanRightsIssues</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>D_PermanentWorkers_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TotalNumberOfEmployeesOrWorkersForTrainingOnHumanRightsIssues</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>D_OtherThanPermanentWorkers_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TotalNumberOfEmployeesOrWorkersForTrainingOnHumanRightsIssues</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>D_Workers_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PercentageOfEmployeesOrWorkersCoveredForProvidedTrainingOnHumanRightsIssues</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>D_PermanentEmployees_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PercentageOfEmployeesOrWorkersCoveredForProvidedTrainingOnHumanRightsIssues</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>D_OtherThanPermanentEmployees_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PercentageOfEmployeesOrWorkersCoveredForProvidedTrainingOnHumanRightsIssues</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>D_Employees_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PercentageOfEmployeesOrWorkersCoveredForProvidedTrainingOnHumanRightsIssues</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>D_PermanentWorkers_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PercentageOfEmployeesOrWorkersCoveredForProvidedTrainingOnHumanRightsIssues</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>D_OtherThanPermanentWorkers_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PercentageOfEmployeesOrWorkersCoveredForProvidedTrainingOnHumanRightsIssues</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>D_Workers_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Total_Turnover</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>21748220.04</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TurnoverRate</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>D_Male_PermanentEmployees_TableB_TurnOverRate_CY</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TurnoverRate</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>D_Female_PermanentEmployees_TableB_TurnOverRate_CY</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TurnoverRate</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>D_OtherGender_PermanentEmployees_TableB_TurnOverRate_CY</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>WhetherAnOccupationalHealthAndSafetyManagementSystemHasBeenImplementedByTheEntity</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DetailsOfOccupationalHealthAndSafetyManagementSystemExplanatoryTextBlock</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Yes. The Company has implemented a health and safety management system across all FCL sites, offices, and third-party units.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PercentageOfHealthAndSafetyPracticesOfYourPlantsAndOfficesThatWereAssessedP3</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ConsumerComplaintsReceivedDuringTheYear</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>D_DataPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ConsumerComplaintsReceivedDuringTheYear</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>D_Advertising</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ConsumerComplaintsReceivedDuringTheYear</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>D_CyberSecurity</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ConsumerComplaintsReceivedDuringTheYear</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>D_DeliveryOfEssentialServices</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ConsumerComplaintsReceivedDuringTheYear</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>D_RestrictiveTradePractices</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ConsumerComplaintsReceivedDuringTheYear</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>D_UnfairTradePractices</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>NumberOfEmployeesOrWorkersCoveredForProvidedTrainingOnHumanRightsIssues</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>D_PermanentEmployees_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>NumberOfEmployeesOrWorkersCoveredForProvidedTrainingOnHumanRightsIssues</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>D_OtherThanPermanentEmployees_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>NumberOfEmployeesOrWorkersCoveredForProvidedTrainingOnHumanRightsIssues</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>D_Employees_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>NumberOfEmployeesOrWorkersCoveredForProvidedTrainingOnHumanRightsIssues</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>D_PermanentWorkers_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>NumberOfEmployeesOrWorkersCoveredForProvidedTrainingOnHumanRightsIssues</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>D_OtherThanPermanentWorkers_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>NumberOfEmployeesOrWorkersCoveredForProvidedTrainingOnHumanRightsIssues</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>D_Workers_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PercentageOfChildLabourOfYourPlantsAndOfficesThatWereAssessedP5</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>PercentageOfDiscriminationAtWorkPlaceOfYourPlantsAndOfficesThatWereAssessedP5</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PercentageOfForcedLabourOrInvoluntaryLabourOfYourPlantsAndOfficesThatWereAssessedP5</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Actual_TotalNumberOfTrainingAndAwarenessProgramsHeld_value</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Actual_TotalNumberOfEmployeesOrWorkersForTrainingOnHumanRightsIssues_value</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>15</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Total_NumberOfEmployeesOrWorkersCoveredForProvidedTrainingOnHumanRightsIssues_value</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Total_NumberOfPersonsBenefittedFromCSRProjects_value</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Period</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Referance_Unit</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>xml_urls</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Not_Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>WhetherDetailsOfGreenHouseGasEmissionsAndItsIntensityIsApplicableToTheCompany</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>GreenhouseGasGHGEmissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TotalScope1Emissions</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MtCO2e</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>TotalScope3Emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TotalScope2Emissions</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MtCO2e</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>TotalScope3EmissionsPerRupeeOfTurnover</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TotalWasteGenerated</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tonne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>TotalScope1EndScope2EmissionsPerRupeeOfTurnover</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TotalWasteDisposed</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tonne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>WasteManagement</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>WasteDisposedByLandfilling</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tonne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Landfilling</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WasteDisposedByIncineration</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tonne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>WasteIntensityPerRupeeOfTurnover</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WasteDisposedByOtherDisposalOperations</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tonne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>asefasd</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TotalFuelConsumptionFromNonRenewableSources</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Gigajoule</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>AmountOfReUsed</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TotalFuelConsumptionFromRenewableSources</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Gigajoule</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>AmountOfRecycled</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EWaste</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tonne</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>WaterManagement</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BatteryWaste</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tonne</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>TotalWaterWithdrawal</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PlasticWaste</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tonne</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>WaterWithdrawalBySeawaterDesalinatedWater</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BioMedicalWaste</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tonne</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>WaterWithdrawalByOther</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>RadioactiveWaste</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tonne</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>TotalWaterConsumption</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>OtherHazardousWaste</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tonne</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>TotalWaterDischargedToGroundwaterWithTreatment</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ConstructionAndDemolitionWaste</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tonne</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>WaterDischargeToThirdPartiesWithTreatment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>OtherNonHazardousWasteGenerated</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tonne</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>WaterDischargeToThirdPartiesWithoutTreatment</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TotalWasteRecovered</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tonne</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>WaterRecovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>WasteRecoveredThroughReUsed</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Tonne</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>WaterIntensityPerRupeeOfTurnover</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>WasteRecoveredThroughRecycled</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Tonne</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>EnergyManagement</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TotalWaterDischargedInKilolitres</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Kiloliters</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>EnergyIntensityPerRupeeOfTurnoverTotalVolumeOfWaterConsumptionWasteRecoveredThroughRecycled</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>WaterWithdrawalBySurfaceWater</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Kiloliters</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>WaterWithdrawalByGroundwater</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Kiloliters</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>WaterWithdrawalByThirdPartyWater</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Kiloliters</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>WaterDischargeToGroundwaterWithOutTreatment</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Kiloliters</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>WaterDischargeToSurfaceWaterWithTreatment</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Kiloliters</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>WaterDischargeToSurfaceWaterWithOutTreatment</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Kiloliters</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>WaterDischargeToSeawaterWithTreatment</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Kiloliters</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>WaterDischargeToSeawaterWithOutTreatment</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Kiloliters</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>WaterDischargeToOthersWithTreatment</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Kiloliters</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>WaterDischargeToOthersWithoutTreatment</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Kiloliters</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TotalEnergyConsumedFromRenewableSources</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Gigajoule</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TotalEnergyConsumedFromRenewableAndNonRenewableSources</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Gigajoule</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TotalEnergyConsumedFromNonRenewableSources</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Gigajoule</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Period</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Decimal</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Referance_Unit</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>xml_urls</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Not_Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PercentageOfInputsWereSourcedSustainably</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>INF</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>EthicalSourcingAndSupplyChain</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TotalNumberOfBoardOfDirectors</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>TotalNumberOfInstancesOfDataBreaches</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NumberOfFemaleBoardOfDirectors</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>TotalWagesPaid</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TotalNumberOfKeyManagementPersonnel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>RemunerationAndPayEquity</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NumberOfFemaleKeyManagementPersonnel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>MedianRemunerationSalaryWagesOfEmployeesOtherThanBODAndKMPMaleNumberOfBoardOfDirectorsForRemunerationOrSalaryOrWages</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DoesTheEntityHaveAFrameworkOrPolicyOnCyberSecurityAndRisksRelatedToDataPrivacy</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WebLinkOfThePolicyOnCyberSecurityAndRisksRelatedToDataPrivacy</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://futureconsumer.in/investors.aspx#policies-code</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NumberOfInstancesOfDataBreachesAlongWithImpact</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>DCYMain</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NumberOfKeyManagerialPersonnelForRemunerationOrSalaryOrWages</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>D_Male_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NumberOfKeyManagerialPersonnelForRemunerationOrSalaryOrWages</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>D_Female_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NumberOfKeyManagerialPersonnelForRemunerationOrSalaryOrWages</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>D_OtherGender_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NumberOfEmployeesOtherThanBodAndKMPForRemunerationOrSalaryOrWages</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>D_Male_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NumberOfEmployeesOtherThanBodAndKMPForRemunerationOrSalaryOrWages</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>D_Female_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NumberOfEmployeesOtherThanBodAndKMPForRemunerationOrSalaryOrWages</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>D_OtherGender_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NumberOfWorkersForRemunerationOrSalaryOrWages</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>D_Male_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NumberOfWorkersForRemunerationOrSalaryOrWages</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>D_Female_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NumberOfWorkersForRemunerationOrSalaryOrWages</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2023-04-01--2024-03-31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>D_OtherGender_p5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Total_NumberOfBoardOfDirectorsForRemunerationOrSalaryOrWages</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Total_NumberOfKeyManagerialPersonnelForRemunerationOrSalaryOrWages</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Total_NumberOfEmployeesOtherThanBodAndKMPForRemunerationOrSalaryOrWages</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>15</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Total_NumberOfWorkersForRemunerationOrSalaryOrWages</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>